--- a/instance/zyjk/zentao/workDiary.xlsx
+++ b/instance/zyjk/zentao/workDiary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25Y05-000ERP、进销存系统</t>
+          <t>25Y21-099健康管理中心优化</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2月6日工作日志</t>
+          <t>5月20日工作日志</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1、医院管理地址维护、客户管理测试  2、同一客户功能测试；  3、非目标客户删除测试；  4、bug提交与回归测试；</t>
+          <t>1、部门例会&lt;br /&gt;2、体重报告展示内容测试；&lt;br /&gt;3、体重报告生成测试，字段状态验证；&lt;br /&gt;4、居民端体重录入测试，体重修改测试；&lt;br /&gt;5、录入体重身高生成体重报告记录逻辑测试；&lt;br /&gt;6、居民端bmi录入测试；&lt;br /&gt;7、协助测试评估因素规则；&lt;br /&gt;8、需求问题沟通与确认；&lt;br /&gt;9、bug提交与验证；&lt;br /&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -481,359 +481,103 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-02-06 17:57:58</t>
+          <t>2025-05-20 17:41:11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>舒阳阳</t>
+          <t>陈晓东</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25Y05-000ERP、进销存系统</t>
+          <t>25Y14-Z03招远妇幼HIS优化</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2月7日工作日志</t>
+          <t>5.20工作日志</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">开发管理优化&lt;br /&gt;科室字典增加其他&lt;br /&gt;拜访类型销售修改为推广&lt;br /&gt;   &lt;br /&gt; </t>
+          <t>5.20工作日志：&lt;br /&gt;妇幼1.3.6.34版本功能测试：&lt;br /&gt;1门诊收费管理-个账换卡功能测试&lt;br /&gt;2门诊报销管理-个账换卡功能测试&lt;br /&gt;3门诊个账收费-个账换卡功能测试&lt;br /&gt;4护理记录单样式确认&lt;br /&gt;</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-02-07 17:51:36</t>
+          <t>2025-05-20 18:01:17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>舒阳阳</t>
+          <t>陈晓东</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>25Y05-000ERP、进销存系统</t>
+          <t>25Y13-I21白茅岭HIS优化</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2月8日工作日志</t>
+          <t>5.20工作日志</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1、客户地址维护优化&lt;br /&gt;新增同一客户功能&lt;br /&gt;客户增加“自然”标签&lt;br /&gt;   &lt;br /&gt; &lt;div class="image-loading-ele small" style="padding:5px;background:#FFF3E0;border:1px solid #FF9800;color:#ff5d5d;margin:10px 0;"&gt;  &lt;i class="icon icon-spin icon-spinner-indicator muted"&gt;&lt;/i&gt; 正在上传图片，请稍后... </t>
+          <t xml:space="preserve">白茅岭-v1.4需求文档查看，用例编写&lt;br /&gt;1住院发药增加追溯码采集与上传需求查看用例编写&lt;br /&gt;2门诊发药界面增加无码库拆零信息显示需求查看用例编写&lt;br /&gt;   &lt;br /&gt; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-02-08 17:41:13</t>
+          <t>2025-05-20 18:02:10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>陈晓东</t>
+          <t>金浩</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25Y18-F09沪享瘦优化</t>
+          <t>25Y21-099健康管理中心优化</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.6工作日志</t>
+          <t>工作日志</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  沪享瘦功能测试：  1医生端-我的  2医生端-患者主页  3医生端-检验报告趋势图数据图线比对  4患者端-减重比赛排行榜  5问题反馈-回归验证</t>
+          <t>1，部门例会&lt;br /&gt;2，体重管理健康干预自动化设计与测试&lt;br /&gt;3，体重管理之评估因素文档更新&lt;br /&gt;4，禅道问题查看&lt;br /&gt;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-02-06 17:56:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>25Y01-Z01区域HIS</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1.6工作日志</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1云his3.10版本-需求评审</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-02-06 17:57:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>25Y01-Z01区域HIS</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2.7工作日志</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  沟通确认云his3.3.2.3需求  功能测试：  1优化病区一栏列表模式床位医生排序方法  2精麻处方引用历史处方时，新建处方和引入明细总量计算方式不同  3.中医病案首页也增加病案首页上报2.中/西医病案首页打印，   与患者关系过长时，超过五个字截断不再显示</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-02-07 17:56:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>25Y18-F09沪享瘦优化</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2.7工作日志</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  测试沪享瘦4.2版本功能  1医生端-检验报告查看  2排序功能验证  3患者端-随访数据维护  4减重排行榜-各指标计算  5bug反馈，回归验证</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-02-07 17:59:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>25Y01-Z01区域HIS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2.8工作日志</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  云his功能测试：  1优化病区一栏列表模式床位医生排序方法2精麻处方引用历史处方时，新建处方和引入明细总量计算方式不同&lt;br /&gt;3中医病案首页也增加病案首页上报&lt;br /&gt;4中/西医病案首页打印，与患者关系过长时，超过五个字截断不再显示&lt;br /&gt;5病区事务-转区，增加转入科室和转入病区联动（类似入院登记），防止护士选错&lt;br /&gt;6检验报告批量打印时，增加整体loading，防止医生点击多次&lt;br /&gt;</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-02-08 18:00:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>25Y02-Z01公共卫生管理系统</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工作日志</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1，每日例会  2，公卫自动化回归测试  &lt;br /&gt;</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-02-06 18:00:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>25Y01-Z01区域HIS</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工作日志</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1，云his 3.10 监理单上需求评审  2，云his 3.9 测试跟进  3，监理单问题跟进</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-02-06 18:02:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>25Y02-Z01公共卫生管理系统</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工作日志</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1，公卫高血压专项自动化设计与测试  2，his进度跟进</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-02-07 17:59:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>25Y02-Z01公共卫生管理系统</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工作日志</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1，项目例会，2025任务方向  2，ai与测试研究  3，公卫高血压随访自动化测试</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-02-08 18:02:40</t>
+          <t>2025-05-20 17:54:16</t>
         </is>
       </c>
     </row>
